--- a/docentes/González Nuñez Veronica - Estadisticos 20211.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -92,6 +92,54 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>CRISTIAN FERMIN</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
   </si>
 </sst>
 </file>
@@ -495,16 +543,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -518,16 +569,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>64.29000000000001</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,16 +595,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H4">
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,16 +621,19 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>77.42</v>
+      </c>
+      <c r="H5">
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -587,16 +647,19 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>47.62</v>
+      </c>
+      <c r="H6">
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -610,16 +673,19 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>82.86</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -633,16 +699,19 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>57.14</v>
+      </c>
+      <c r="H8">
+        <v>6.9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -727,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -750,7 +819,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -773,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -796,7 +865,7 @@
         <v>31</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -819,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -842,7 +911,7 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -865,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -950,16 +1019,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H2">
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -973,16 +1045,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>64.29000000000001</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -996,16 +1071,19 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H4">
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1019,16 +1097,19 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>77.42</v>
+      </c>
+      <c r="H5">
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1042,16 +1123,19 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>47.62</v>
+      </c>
+      <c r="H6">
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1065,16 +1149,19 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>82.86</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1088,16 +1175,19 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>57.14</v>
+      </c>
+      <c r="H8">
+        <v>6.9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1133,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1166,6 +1256,167 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920073</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/González Nuñez Veronica - Estadisticos 20211.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
   <si>
     <t>Mat</t>
   </si>
@@ -100,6 +100,9 @@
     <t>CANUTO</t>
   </si>
   <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
     <t>LUNA</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>MEDINA</t>
   </si>
   <si>
+    <t>LEON</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
   </si>
   <si>
     <t>JESUS ANTONIO</t>
@@ -1223,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1264,10 +1276,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1287,10 +1299,10 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1310,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1327,22 +1339,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920326</v>
+        <v>19330051920314</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1350,22 +1362,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920118</v>
+        <v>20330051920323</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1373,22 +1385,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920122</v>
+        <v>20330051920326</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1396,24 +1408,70 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>21330051920118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>20330051920268</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>6</v>
       </c>
     </row>

--- a/docentes/González Nuñez Veronica - Estadisticos 20211.xlsx
+++ b/docentes/González Nuñez Veronica - Estadisticos 20211.xlsx
@@ -121,15 +121,15 @@
     <t>MEDINA</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
     <t>LEON</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>VILLA</t>
-  </si>
-  <si>
     <t>CRISTIAN FERMIN</t>
   </si>
   <si>
@@ -139,19 +139,19 @@
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>JESUS ANTONIO</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>JESUS HUMBERTO</t>
+  </si>
+  <si>
     <t>JESUS SAMUEL</t>
-  </si>
-  <si>
-    <t>JESUS ANTONIO</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>JESUS HUMBERTO</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920323</v>
+        <v>20330051920326</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920326</v>
+        <v>21330051920118</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1397,10 +1397,10 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920118</v>
+        <v>21330051920122</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -1431,22 +1431,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920122</v>
+        <v>20330051920268</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920268</v>
+        <v>20330051920323</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>6</v>
